--- a/Codigos.xlsx
+++ b/Codigos.xlsx
@@ -1,156 +1,151 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CODE\AutoPPT\v1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CODE\AutoPPT_v1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{721025B8-401F-423B-B186-E4B587F2E693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B19D3241-D230-4C4E-86D7-2A9947B0D91D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-7290" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="188">
   <si>
+    <t>Slide</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Pestaña BD</t>
+  </si>
+  <si>
+    <t>Serie</t>
+  </si>
+  <si>
+    <t>Nombre Diapo</t>
+  </si>
+  <si>
+    <t>Ruta</t>
+  </si>
+  <si>
+    <t>Pestaña</t>
+  </si>
+  <si>
+    <t>Título</t>
+  </si>
+  <si>
+    <t>166.1_ARO_NACUTO_0_0_16</t>
+  </si>
+  <si>
+    <t>Ahorro e inversión</t>
+  </si>
+  <si>
+    <t>Ahorro nacional bruto</t>
+  </si>
+  <si>
+    <t>166.1_F_BRUTAIJO_0_0_19</t>
+  </si>
+  <si>
+    <t>FBKF</t>
+  </si>
+  <si>
+    <t>166.1_VEXISTEIAS_0_0_15</t>
+  </si>
+  <si>
+    <t>Variación de existencias</t>
+  </si>
+  <si>
+    <t>166.1_OBJETOS_VASOS_A_0_0_16_13</t>
+  </si>
+  <si>
+    <t>Objetos valiosos</t>
+  </si>
+  <si>
+    <t>4.1_IT_2004_A_13</t>
+  </si>
+  <si>
+    <t>Consumo e inversión</t>
+  </si>
+  <si>
+    <t>Año</t>
+  </si>
+  <si>
+    <t>4.1_MGCP_2004_A_25</t>
+  </si>
+  <si>
+    <t>Consumo de los hogares</t>
+  </si>
+  <si>
+    <t>4.1_DGCP_2004_A_30</t>
+  </si>
+  <si>
+    <t>Consumo del gobierno</t>
+  </si>
+  <si>
+    <t>4.1_DGIT_2004_A_25</t>
+  </si>
+  <si>
     <t>143.3_NO_PR_2004_A_31</t>
   </si>
   <si>
-    <t>Serie</t>
+    <t>EMAE</t>
   </si>
   <si>
     <t>EMAE s.e.</t>
   </si>
   <si>
+    <t>80.1_IIVNG_0_A_30</t>
+  </si>
+  <si>
     <t>Expo</t>
   </si>
   <si>
     <t>Expo bs US$</t>
   </si>
   <si>
+    <t>80.1_IIPNG_0_A_31</t>
+  </si>
+  <si>
+    <t>Expo bs P</t>
+  </si>
+  <si>
+    <t>80.1_IICNG_0_A_33</t>
+  </si>
+  <si>
+    <t>Expo bs Q</t>
+  </si>
+  <si>
     <t>81.1_IIVNIG_0_A_44</t>
   </si>
   <si>
+    <t>Impo</t>
+  </si>
+  <si>
+    <t>Impo bs US$</t>
+  </si>
+  <si>
     <t>81.1_IIPING_0_A_45</t>
   </si>
   <si>
+    <t>Impo bs P</t>
+  </si>
+  <si>
     <t>81.1_IICING_0_A_47</t>
   </si>
   <si>
-    <t>Expo bs Q</t>
-  </si>
-  <si>
-    <t>Expo bs P</t>
-  </si>
-  <si>
-    <t>Impo</t>
-  </si>
-  <si>
-    <t>Impo bs US$</t>
-  </si>
-  <si>
-    <t>Impo bs P</t>
-  </si>
-  <si>
     <t>Impo bs Q</t>
-  </si>
-  <si>
-    <t>80.1_IIVNG_0_A_30</t>
-  </si>
-  <si>
-    <t>80.1_IIPNG_0_A_31</t>
-  </si>
-  <si>
-    <t>80.1_IICNG_0_A_33</t>
-  </si>
-  <si>
-    <t>Ruta</t>
-  </si>
-  <si>
-    <t>Pestaña</t>
-  </si>
-  <si>
-    <t>Título</t>
-  </si>
-  <si>
-    <t>Nombre Diapo</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Slide</t>
-  </si>
-  <si>
-    <t>Pestaña BD</t>
-  </si>
-  <si>
-    <t>EMAE</t>
-  </si>
-  <si>
-    <t>166.1_ARO_NACUTO_0_0_16</t>
-  </si>
-  <si>
-    <t>Ahorro e inversión</t>
-  </si>
-  <si>
-    <t>Ahorro nacional bruto</t>
-  </si>
-  <si>
-    <t>166.1_F_BRUTAIJO_0_0_19</t>
-  </si>
-  <si>
-    <t>FBKF</t>
-  </si>
-  <si>
-    <t>166.1_VEXISTEIAS_0_0_15</t>
-  </si>
-  <si>
-    <t>Variación de existencias</t>
-  </si>
-  <si>
-    <t>166.1_OBJETOS_VASOS_A_0_0_16_13</t>
-  </si>
-  <si>
-    <t>Objetos valiosos</t>
-  </si>
-  <si>
-    <t>4.1_IT_2004_A_13</t>
-  </si>
-  <si>
-    <t>Consumo e inversión</t>
-  </si>
-  <si>
-    <t>Año</t>
-  </si>
-  <si>
-    <t>4.1_MGCP_2004_A_25</t>
-  </si>
-  <si>
-    <t>Consumo de los hogares</t>
-  </si>
-  <si>
-    <t>4.1_DGCP_2004_A_30</t>
-  </si>
-  <si>
-    <t>Consumo del gobierno</t>
-  </si>
-  <si>
-    <t>4.1_DGIT_2004_A_25</t>
   </si>
   <si>
     <t>3.2_IT_D_2004_T_14</t>
@@ -595,7 +590,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -633,6 +628,11 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -654,7 +654,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -663,6 +663,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -946,7 +947,7 @@
   <dimension ref="A1:H113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="B3" sqref="B3:D113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -958,1147 +959,1461 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B2" s="4" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" t="s">
-        <v>29</v>
+        <v>9</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" t="s">
-        <v>31</v>
+        <v>9</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" t="s">
-        <v>33</v>
+        <v>9</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B6" s="5" t="s">
-        <v>34</v>
+      <c r="A6" s="6"/>
+      <c r="B6" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" t="s">
-        <v>36</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B7" s="5" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" t="s">
-        <v>38</v>
+        <v>18</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" t="s">
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B16" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
+      <c r="C16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="6"/>
+      <c r="B17" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C17" t="s">
-        <v>43</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="C17" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B18" t="s">
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="6"/>
+      <c r="B18" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C18" t="s">
-        <v>43</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="C18" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B19" t="s">
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="6"/>
+      <c r="B19" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C19" t="s">
-        <v>43</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="C19" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B20" t="s">
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="6"/>
+      <c r="B20" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C20" t="s">
-        <v>43</v>
-      </c>
-      <c r="D20" t="s">
+      <c r="C20" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B21" t="s">
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="6"/>
+      <c r="B21" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C21" t="s">
-        <v>43</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="C21" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B22" t="s">
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="6"/>
+      <c r="B22" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C22" t="s">
-        <v>43</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="C22" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B23" t="s">
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="6"/>
+      <c r="B23" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C23" t="s">
-        <v>43</v>
-      </c>
-      <c r="D23" t="s">
+      <c r="C23" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B24" t="s">
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="6"/>
+      <c r="B24" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C24" t="s">
-        <v>43</v>
-      </c>
-      <c r="D24" t="s">
+      <c r="C24" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B25" t="s">
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="6"/>
+      <c r="B25" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C25" t="s">
-        <v>43</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="C25" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D25" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B26" t="s">
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="6"/>
+      <c r="B26" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C26" t="s">
-        <v>43</v>
-      </c>
-      <c r="D26" t="s">
+      <c r="C26" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" s="3" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B27" t="s">
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="6"/>
+      <c r="B27" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C27" t="s">
-        <v>43</v>
-      </c>
-      <c r="D27" t="s">
+      <c r="C27" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D27" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B28" t="s">
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="6"/>
+      <c r="B28" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C28" t="s">
-        <v>43</v>
-      </c>
-      <c r="D28" t="s">
+      <c r="C28" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D28" s="3" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B29" t="s">
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="6"/>
+      <c r="B29" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C29" t="s">
-        <v>43</v>
-      </c>
-      <c r="D29" t="s">
+      <c r="C29" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D29" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B30" t="s">
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="6"/>
+      <c r="B30" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C30" t="s">
-        <v>43</v>
-      </c>
-      <c r="D30" t="s">
+      <c r="C30" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D30" s="3" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B31" t="s">
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="6"/>
+      <c r="B31" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C31" t="s">
-        <v>43</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="C31" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D31" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B32" t="s">
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="6"/>
+      <c r="B32" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C32" t="s">
-        <v>43</v>
-      </c>
-      <c r="D32" t="s">
+      <c r="C32" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D32" s="3" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B33" t="s">
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="6"/>
+      <c r="B33" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C33" t="s">
-        <v>43</v>
-      </c>
-      <c r="D33" t="s">
+      <c r="C33" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D33" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B34" t="s">
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="6"/>
+      <c r="B34" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C34" t="s">
-        <v>43</v>
-      </c>
-      <c r="D34" t="s">
+      <c r="C34" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D34" s="3" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B35" t="s">
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" s="6"/>
+      <c r="B35" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C35" t="s">
-        <v>43</v>
-      </c>
-      <c r="D35" t="s">
+      <c r="C35" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D35" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B36" t="s">
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" s="6"/>
+      <c r="B36" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C36" t="s">
-        <v>43</v>
-      </c>
-      <c r="D36" t="s">
+      <c r="C36" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D36" s="3" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B37" t="s">
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" s="6"/>
+      <c r="B37" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C37" t="s">
-        <v>43</v>
-      </c>
-      <c r="D37" t="s">
+      <c r="C37" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D37" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B38" t="s">
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" s="6"/>
+      <c r="B38" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C38" t="s">
-        <v>43</v>
-      </c>
-      <c r="D38" t="s">
+      <c r="C38" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D38" s="3" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B39" t="s">
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" s="6"/>
+      <c r="B39" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C39" t="s">
-        <v>43</v>
-      </c>
-      <c r="D39" t="s">
+      <c r="C39" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D39" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B40" t="s">
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" s="6"/>
+      <c r="B40" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C40" t="s">
-        <v>43</v>
-      </c>
-      <c r="D40" t="s">
+      <c r="C40" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D40" s="3" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B41" t="s">
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" s="6"/>
+      <c r="B41" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C41" t="s">
-        <v>43</v>
-      </c>
-      <c r="D41" t="s">
+      <c r="C41" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D41" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B42" t="s">
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42" s="6"/>
+      <c r="B42" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C42" t="s">
-        <v>43</v>
-      </c>
-      <c r="D42" t="s">
+      <c r="C42" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D42" s="3" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B43" t="s">
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43" s="6"/>
+      <c r="B43" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C43" t="s">
-        <v>43</v>
-      </c>
-      <c r="D43" t="s">
+      <c r="C43" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D43" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B44" t="s">
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44" s="6"/>
+      <c r="B44" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C44" t="s">
-        <v>43</v>
-      </c>
-      <c r="D44" t="s">
+      <c r="C44" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D44" s="3" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B45" t="s">
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45" s="6"/>
+      <c r="B45" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C45" t="s">
-        <v>43</v>
-      </c>
-      <c r="D45" t="s">
+      <c r="C45" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D45" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B46" t="s">
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46" s="6"/>
+      <c r="B46" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C46" t="s">
-        <v>43</v>
-      </c>
-      <c r="D46" t="s">
+      <c r="C46" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D46" s="3" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B47" t="s">
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47" s="6"/>
+      <c r="B47" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C47" t="s">
-        <v>43</v>
-      </c>
-      <c r="D47" t="s">
+      <c r="C47" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D47" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B48" t="s">
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48" s="6"/>
+      <c r="B48" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C48" t="s">
-        <v>43</v>
-      </c>
-      <c r="D48" t="s">
+      <c r="C48" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D48" s="3" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B49" t="s">
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49" s="6"/>
+      <c r="B49" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C49" t="s">
-        <v>43</v>
-      </c>
-      <c r="D49" t="s">
+      <c r="C49" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D49" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B50" t="s">
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50" s="6"/>
+      <c r="B50" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C50" t="s">
-        <v>43</v>
-      </c>
-      <c r="D50" t="s">
+      <c r="C50" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D50" s="3" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B51" t="s">
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="6"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B51" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D51" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B52" t="s">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52" s="6"/>
+      <c r="B52" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D52" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B53" t="s">
+      <c r="D52" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="6"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53" s="6"/>
+      <c r="B53" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D53" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B54" t="s">
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="6"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B54" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D54" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B55" t="s">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B55" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D55" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B56" t="s">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A56" s="6"/>
+      <c r="B56" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D56" s="3" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B57" t="s">
+      <c r="E56" s="6"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="6"/>
+      <c r="H56" s="6"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A57" s="6"/>
+      <c r="B57" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D57" s="3" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B58" t="s">
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="6"/>
+      <c r="H57" s="6"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A58" s="6"/>
+      <c r="B58" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D58" s="3" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B59" t="s">
+      <c r="E58" s="6"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="6"/>
+      <c r="H58" s="6"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A59" s="6"/>
+      <c r="B59" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D59" s="3" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B60" t="s">
+      <c r="E59" s="6"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="6"/>
+      <c r="H59" s="6"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A60" s="6"/>
+      <c r="B60" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D60" s="3" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B61" t="s">
+      <c r="E60" s="6"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="6"/>
+      <c r="H60" s="6"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A61" s="6"/>
+      <c r="B61" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C61" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D61" s="3" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B62" t="s">
+      <c r="E61" s="6"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="6"/>
+      <c r="H61" s="6"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A62" s="6"/>
+      <c r="B62" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C62" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D62" s="3" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B63" t="s">
+      <c r="E62" s="6"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="6"/>
+      <c r="H62" s="6"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A63" s="6"/>
+      <c r="B63" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C63" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D63" s="3" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B64" t="s">
+      <c r="E63" s="6"/>
+      <c r="F63" s="6"/>
+      <c r="G63" s="6"/>
+      <c r="H63" s="6"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A64" s="6"/>
+      <c r="B64" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C64" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D64" s="3" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B65" t="s">
+      <c r="E64" s="6"/>
+      <c r="F64" s="6"/>
+      <c r="G64" s="6"/>
+      <c r="H64" s="6"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A65" s="6"/>
+      <c r="B65" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C65" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D65" s="3" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B66" t="s">
+      <c r="E65" s="6"/>
+      <c r="F65" s="6"/>
+      <c r="G65" s="6"/>
+      <c r="H65" s="6"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A66" s="6"/>
+      <c r="B66" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C66" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D66" s="3" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B67" t="s">
+      <c r="E66" s="6"/>
+      <c r="F66" s="6"/>
+      <c r="G66" s="6"/>
+      <c r="H66" s="6"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A67" s="6"/>
+      <c r="B67" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C67" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D67" s="3" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B68" t="s">
+      <c r="E67" s="6"/>
+      <c r="F67" s="6"/>
+      <c r="G67" s="6"/>
+      <c r="H67" s="6"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A68" s="6"/>
+      <c r="B68" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C68" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D68" s="3" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B69" t="s">
+      <c r="E68" s="6"/>
+      <c r="F68" s="6"/>
+      <c r="G68" s="6"/>
+      <c r="H68" s="6"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A69" s="6"/>
+      <c r="B69" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C69" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D69" s="3" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B70" t="s">
+      <c r="E69" s="6"/>
+      <c r="F69" s="6"/>
+      <c r="G69" s="6"/>
+      <c r="H69" s="6"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A70" s="6"/>
+      <c r="B70" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C70" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D70" s="3" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B71" t="s">
+      <c r="E70" s="6"/>
+      <c r="F70" s="6"/>
+      <c r="G70" s="6"/>
+      <c r="H70" s="6"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A71" s="6"/>
+      <c r="B71" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C71" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D71" s="3" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B72" t="s">
+      <c r="E71" s="6"/>
+      <c r="F71" s="6"/>
+      <c r="G71" s="6"/>
+      <c r="H71" s="6"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A72" s="6"/>
+      <c r="B72" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C72" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D72" s="3" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B73" t="s">
+      <c r="E72" s="6"/>
+      <c r="F72" s="6"/>
+      <c r="G72" s="6"/>
+      <c r="H72" s="6"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A73" s="6"/>
+      <c r="B73" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C73" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="D73" t="s">
+      <c r="D73" s="3" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B74" t="s">
+      <c r="E73" s="6"/>
+      <c r="F73" s="6"/>
+      <c r="G73" s="6"/>
+      <c r="H73" s="6"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B74" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C74" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="D74" t="s">
+      <c r="D74" s="2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B75" t="s">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B75" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="D75" t="s">
+      <c r="C75" s="2"/>
+      <c r="D75" s="2" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B76" t="s">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B76" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D76" t="s">
+      <c r="C76" s="2"/>
+      <c r="D76" s="2" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B77" t="s">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B77" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="D77" t="s">
+      <c r="C77" s="2"/>
+      <c r="D77" s="2" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B78" t="s">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B78" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="D78" t="s">
+      <c r="C78" s="2"/>
+      <c r="D78" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B79" t="s">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B79" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="D79" t="s">
+      <c r="C79" s="2"/>
+      <c r="D79" s="2" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B80" t="s">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B80" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D80" t="s">
+      <c r="C80" s="2"/>
+      <c r="D80" s="2" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="81" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B81" t="s">
+      <c r="B81" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="D81" t="s">
+      <c r="C81" s="2"/>
+      <c r="D81" s="2" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B82" t="s">
+      <c r="B82" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="D82" t="s">
+      <c r="C82" s="2"/>
+      <c r="D82" s="2" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="83" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B83" t="s">
+      <c r="B83" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="D83" t="s">
+      <c r="C83" s="2"/>
+      <c r="D83" s="2" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B84" t="s">
+      <c r="B84" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="D84" t="s">
+      <c r="C84" s="2"/>
+      <c r="D84" s="2" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B85" t="s">
+      <c r="B85" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="D85" t="s">
+      <c r="C85" s="2"/>
+      <c r="D85" s="2" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="86" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B86" t="s">
+      <c r="B86" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="D86" t="s">
+      <c r="C86" s="2"/>
+      <c r="D86" s="2" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="87" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B87" t="s">
+      <c r="B87" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="D87" t="s">
+      <c r="C87" s="2"/>
+      <c r="D87" s="2" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="88" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B88" t="s">
+      <c r="B88" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="D88" t="s">
+      <c r="C88" s="2"/>
+      <c r="D88" s="2" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="89" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B89" t="s">
+      <c r="B89" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="D89" t="s">
+      <c r="C89" s="2"/>
+      <c r="D89" s="2" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="90" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B90" t="s">
+      <c r="B90" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="D90" t="s">
+      <c r="C90" s="2"/>
+      <c r="D90" s="2" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="91" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B91" t="s">
+      <c r="B91" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="D91" t="s">
+      <c r="C91" s="2"/>
+      <c r="D91" s="2" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="92" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B92" t="s">
+      <c r="B92" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="D92" t="s">
+      <c r="C92" s="2"/>
+      <c r="D92" s="2" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="93" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B93" t="s">
+      <c r="B93" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="D93" t="s">
+      <c r="C93" s="2"/>
+      <c r="D93" s="2" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="94" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B94" t="s">
+      <c r="B94" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="D94" t="s">
+      <c r="C94" s="2"/>
+      <c r="D94" s="2" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="95" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B95" t="s">
+      <c r="B95" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="D95" t="s">
+      <c r="C95" s="2"/>
+      <c r="D95" s="2" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="96" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B96" t="s">
+      <c r="B96" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="D96" t="s">
+      <c r="C96" s="2"/>
+      <c r="D96" s="2" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="97" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B97" t="s">
+      <c r="B97" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="D97" t="s">
+      <c r="C97" s="2"/>
+      <c r="D97" s="2" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="98" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B98" t="s">
+      <c r="B98" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="D98" t="s">
+      <c r="C98" s="2"/>
+      <c r="D98" s="2" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="99" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B99" t="s">
+      <c r="B99" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="D99" t="s">
+      <c r="C99" s="2"/>
+      <c r="D99" s="2" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="100" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B100" t="s">
+      <c r="B100" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="D100" t="s">
+      <c r="C100" s="2"/>
+      <c r="D100" s="2" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="101" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B101" t="s">
+      <c r="B101" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="D101" t="s">
+      <c r="C101" s="2"/>
+      <c r="D101" s="2" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="102" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B102" t="s">
+      <c r="B102" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="D102" t="s">
+      <c r="C102" s="2"/>
+      <c r="D102" s="2" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="103" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B103" t="s">
+      <c r="B103" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="D103" t="s">
+      <c r="C103" s="2"/>
+      <c r="D103" s="2" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="104" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B104" t="s">
+      <c r="B104" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="D104" t="s">
+      <c r="C104" s="2"/>
+      <c r="D104" s="2" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="105" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B105" t="s">
+      <c r="B105" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="D105" t="s">
+      <c r="C105" s="2"/>
+      <c r="D105" s="2" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="106" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B106" t="s">
+      <c r="B106" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="D106" t="s">
+      <c r="C106" s="2"/>
+      <c r="D106" s="2" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="107" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B107" t="s">
+      <c r="B107" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="D107" t="s">
+      <c r="C107" s="2"/>
+      <c r="D107" s="2" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="108" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B108" t="s">
+      <c r="B108" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="D108" t="s">
+      <c r="C108" s="2"/>
+      <c r="D108" s="2" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="109" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B109" t="s">
+      <c r="B109" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="D109" t="s">
+      <c r="C109" s="2"/>
+      <c r="D109" s="2" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="110" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B110" t="s">
+      <c r="B110" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="D110" t="s">
+      <c r="C110" s="2"/>
+      <c r="D110" s="2" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="111" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B111" t="s">
+      <c r="B111" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="D111" t="s">
+      <c r="C111" s="2"/>
+      <c r="D111" s="2" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="112" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B112" t="s">
+      <c r="B112" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="D112" t="s">
+      <c r="C112" s="2"/>
+      <c r="D112" s="2" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="113" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B113" t="s">
+      <c r="B113" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="D113" t="s">
+      <c r="C113" s="2"/>
+      <c r="D113" s="2" t="s">
         <v>187</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>